--- a/biology/Zoologie/Clupeacharax_anchoveoides/Clupeacharax_anchoveoides.xlsx
+++ b/biology/Zoologie/Clupeacharax_anchoveoides/Clupeacharax_anchoveoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clupeacharax
 Clupeacharax anchoveoides, unique représentant du genre Clupeacharax, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Paraguay et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Paraguay et au Pérou.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clupeacharax anchoveoides peut mesurer jusqu'à 66 mm, queue non comprise[2]. Mais certaines sources indiquent qu'il peut atteindre 80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clupeacharax anchoveoides peut mesurer jusqu'à 66 mm, queue non comprise. Mais certaines sources indiquent qu'il peut atteindre 80 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Clupeacharax et l'espèce Clupeacharax anchoveoides ont été décrits en 1924 par l’ichtyologiste américain Nathan Everett Pearson (d) (1895-1982)[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Clupeacharax et l'espèce Clupeacharax anchoveoides ont été décrits en 1924 par l’ichtyologiste américain Nathan Everett Pearson (d) (1895-1982),.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Clupeacharax, du latin clupea, « hareng », et du genre Charax, fait référence à la forme générale de ce poisson qui rappelle celle du hareng[5].
-L'épithète spécifique, composé de anchov et du grec ancien εἶδος, eī́dos, « en forme de », reprend la même origine avec, cette fois-ci, une ressemblance avec les anchois[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Clupeacharax, du latin clupea, « hareng », et du genre Charax, fait référence à la forme générale de ce poisson qui rappelle celle du hareng.
+L'épithète spécifique, composé de anchov et du grec ancien εἶδος, eī́dos, « en forme de », reprend la même origine avec, cette fois-ci, une ressemblance avec les anchois.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Nathan Everett Pearson, « The fishes of the eastern slope of the Andes. I. The fishes of the Rio Beni basin, Bolivia, collected by the Mulford expedition », Indiana University studies, Inconnu, vol. 11, no 64,‎ décembre 1924, p. 1-83 (ISSN 0884-8203, OCLC 1590547, lire en ligne)</t>
         </is>
